--- a/data/trans_bre/P14B24_2016_2023-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P14B24_2016_2023-Estudios-trans_bre.xlsx
@@ -592,13 +592,13 @@
         <v>6.448654871591339</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>4.233176448605927</v>
+        <v>4.23317644860593</v>
       </c>
       <c r="E4" s="6" t="n">
         <v>4.536955357799684</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>0.836976628550767</v>
+        <v>0.8369766285507678</v>
       </c>
     </row>
     <row r="5">
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.491766680029573</v>
+        <v>4.71147605553938</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.76413510963318</v>
+        <v>1.962278725961506</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>1.934980598258098</v>
+        <v>1.992030980858442</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>0.236544793201715</v>
+        <v>0.2702391708743782</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.36627769842441</v>
+        <v>8.576923003885515</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.491820596411923</v>
+        <v>6.621973436879297</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>10.2776908589596</v>
+        <v>10.33922025164395</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1.652863277452943</v>
+        <v>1.703684176685488</v>
       </c>
     </row>
     <row r="7">
@@ -656,13 +656,13 @@
         <v>2.070262135158796</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>3.586361611261944</v>
+        <v>3.586361611261943</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>1.750549620884515</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>1.633007700529253</v>
+        <v>1.633007700529252</v>
       </c>
     </row>
     <row r="8">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.234784457439523</v>
+        <v>1.143624701437547</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>2.504555144503687</v>
+        <v>2.534519800847263</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.7566770424578003</v>
+        <v>0.6721706728780343</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.9037690188855821</v>
+        <v>0.9177870361891353</v>
       </c>
     </row>
     <row r="9">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.202195078864038</v>
+        <v>3.107675259943503</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>4.689642698260159</v>
+        <v>4.749399094203587</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>3.665171166901027</v>
+        <v>3.550970494448511</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>2.675811566748356</v>
+        <v>2.725074537678378</v>
       </c>
     </row>
     <row r="10">
@@ -720,13 +720,13 @@
         <v>0.3442153609879655</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>1.079720232773846</v>
+        <v>1.079720232773845</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>1.016518037675774</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>0.4057623512518285</v>
+        <v>0.405762351251828</v>
       </c>
     </row>
     <row r="11">
@@ -737,14 +737,14 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.360675883688663</v>
+        <v>-0.3444542696593703</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.03322855349436</v>
+        <v>-1.001292011072517</v>
       </c>
       <c r="E11" s="6" t="inlineStr"/>
       <c r="F11" s="6" t="n">
-        <v>-0.3115783294362934</v>
+        <v>-0.276044491906959</v>
       </c>
     </row>
     <row r="12">
@@ -755,14 +755,14 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.189418202122417</v>
+        <v>1.22265060613852</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.872346003496592</v>
+        <v>2.913824669236718</v>
       </c>
       <c r="E12" s="6" t="inlineStr"/>
       <c r="F12" s="6" t="n">
-        <v>1.769410486924764</v>
+        <v>1.696411000923727</v>
       </c>
     </row>
     <row r="13">
@@ -780,13 +780,13 @@
         <v>3.054263281498442</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>3.392856760463257</v>
+        <v>3.392856760463259</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>2.778443357276343</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>1.229334509042349</v>
+        <v>1.22933450904235</v>
       </c>
     </row>
     <row r="14">
@@ -797,16 +797,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>2.276692158248464</v>
+        <v>2.29119138710897</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>2.510103247421115</v>
+        <v>2.477494063266565</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1.592675497176152</v>
+        <v>1.68870194560914</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.7711768173991743</v>
+        <v>0.7646444108108434</v>
       </c>
     </row>
     <row r="15">
@@ -817,16 +817,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.892707621766552</v>
+        <v>3.85053988818352</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>4.386097694826127</v>
+        <v>4.261318050474173</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>4.737753982935736</v>
+        <v>4.587574771363234</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.909939444661958</v>
+        <v>1.842745528295296</v>
       </c>
     </row>
     <row r="16">
